--- a/dtpu_configurations/only_integer16/50mhz/mxu_16x16/power.xlsx
+++ b/dtpu_configurations/only_integer16/50mhz/mxu_16x16/power.xlsx
@@ -175,19 +175,19 @@
         <v>11</v>
       </c>
       <c r="B2" t="n" s="4">
-        <v>0.026948658749461174</v>
+        <v>0.029865028336644173</v>
       </c>
       <c r="C2" t="n" s="4">
-        <v>0.012727287597954273</v>
+        <v>0.014225698076188564</v>
       </c>
       <c r="D2" t="n" s="4">
-        <v>0.007948539219796658</v>
+        <v>0.008375976234674454</v>
       </c>
       <c r="E2" t="n" s="4">
-        <v>0.006407634820789099</v>
+        <v>0.006407634355127811</v>
       </c>
       <c r="F2" t="n" s="4">
-        <v>2.7501911972649395E-4</v>
+        <v>4.277172847650945E-4</v>
       </c>
       <c r="G2" t="n" s="4">
         <v>0.001126573421061039</v>
@@ -199,10 +199,10 @@
         <v>1.258823275566101</v>
       </c>
       <c r="J2" t="n" s="4">
-        <v>0.12749262154102325</v>
+        <v>0.1275334358215332</v>
       </c>
       <c r="K2" t="n" s="4">
-        <v>1.4427262544631958</v>
+        <v>1.4477618932724</v>
       </c>
     </row>
   </sheetData>
